--- a/TestcaseDemo.xlsx
+++ b/TestcaseDemo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIJAY VYAS\AppData\Roaming\Microsoft\Windows\Network Shortcuts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_AET25\ADASProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72424071-E12E-4931-AC2E-4CC6AED21EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2A1D18-21EF-45A1-8915-4F472E5FDF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{B2CB1CE1-1BEA-4532-B0C6-FFB29C09D156}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>TC DEMO</t>
+    <t>Changes Done</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
   <dimension ref="E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestcaseDemo.xlsx
+++ b/TestcaseDemo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_AET25\ADASProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIJAY VYAS\AppData\Roaming\Microsoft\Windows\Network Shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2A1D18-21EF-45A1-8915-4F472E5FDF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72424071-E12E-4931-AC2E-4CC6AED21EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{B2CB1CE1-1BEA-4532-B0C6-FFB29C09D156}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Changes Done</t>
+    <t>TC DEMO</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
   <dimension ref="E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
